--- a/feirafacil-tabelas.xlsx
+++ b/feirafacil-tabelas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Tabelas</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">Membros da família</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forma_pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de pagamento</t>
   </si>
 </sst>
 </file>
@@ -118,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,6 +146,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,15 +234,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.16"/>
@@ -352,10 +360,18 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>

--- a/feirafacil-tabelas.xlsx
+++ b/feirafacil-tabelas.xlsx
@@ -242,7 +242,7 @@
       <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.16"/>
@@ -371,7 +371,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
